--- a/export_par_receipt.xlsx
+++ b/export_par_receipt.xlsx
@@ -56,10 +56,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Lenovo G40-80, Model Name: 80 E4, CPU: Intel i3-5005U 2.0 G, RAM: 4G, HDD; 500G, Display: 14 HD LED, OS: Windows 8.1 Pro Serial # PF0DE1Z0</t>
-  </si>
-  <si>
-    <t>03/29/2016</t>
+    <t>Lenovo G40-80, Model Name: 80 E4, CPU: Intel i3-5005U 2.0 G, RAM: 4G, HDD; 500G, Display: 14' HD LED, OS: Windows 8.1 Pro Serial # PF0DE1Z0</t>
+  </si>
+  <si>
+    <t>3/29/2016</t>
   </si>
   <si>
     <t xml:space="preserve">Received by: </t>
